--- a/pipe/coefficients.xlsx
+++ b/pipe/coefficients.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13960" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="2" r:id="rId1"/>
@@ -772,22 +772,22 @@
     <t>v_49</t>
   </si>
   <si>
-    <t>Kc</t>
-  </si>
-  <si>
-    <t>Kc1</t>
-  </si>
-  <si>
-    <t>Kc2</t>
-  </si>
-  <si>
-    <t>Ke</t>
-  </si>
-  <si>
-    <t>Ke1</t>
-  </si>
-  <si>
-    <t>Ktee</t>
+    <t>Kc*rho/2</t>
+  </si>
+  <si>
+    <t>Ktee*rho/2</t>
+  </si>
+  <si>
+    <t>Ke*rho/2</t>
+  </si>
+  <si>
+    <t>Ke1*rho/2</t>
+  </si>
+  <si>
+    <t>Kc2*rho/2</t>
+  </si>
+  <si>
+    <t>Kc1*rho/2</t>
   </si>
 </sst>
 </file>
@@ -1396,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS18"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1456,17 +1456,18 @@
         <v>1.3888888888888888E-11</v>
       </c>
       <c r="K3" t="s">
+        <v>254</v>
+      </c>
+      <c r="L3">
+        <f>0.5*B4/2</f>
         <v>250</v>
       </c>
-      <c r="L3">
-        <v>0.5</v>
-      </c>
       <c r="N3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O3">
-        <f>2</f>
-        <v>2</v>
+        <f>2*B4/2</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1495,10 +1496,11 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <f>0.5*B4/2</f>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1508,10 +1510,11 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="K5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <f>1*B4/2</f>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="16" thickBot="1">
@@ -2402,277 +2405,277 @@
       </c>
       <c r="C16">
         <f>$L$3</f>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="G16">
         <f>L3</f>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="Z16">
         <f>$L$4</f>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AA16">
         <f t="shared" ref="AA16:AS16" si="1">$L$4</f>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AB16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AC16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AD16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AE16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AF16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AG16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AH16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AI16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AK16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AL16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AM16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AN16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AO16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AP16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AQ16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AR16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AS16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:45">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B17">
         <f>$O$3</f>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C17">
         <f t="shared" ref="C17:Y17" si="2">$O$3</f>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="Q17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="R17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="S17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="T17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="V17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="W17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="X17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="Y17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:45">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z18">
         <f>$L$5</f>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AA18">
         <f t="shared" ref="AA18:AS18" si="3">$L$5</f>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AB18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AC18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AD18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AE18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AF18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AG18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AH18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AI18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AK18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AL18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AM18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AN18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AO18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AP18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AQ18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AR18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AS18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -4137,7 +4140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4391,15 +4394,15 @@
       </c>
       <c r="AA3">
         <f>-Constants!B17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="AB3">
         <f>-Constants!C$16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
       <c r="AF3">
         <f>-Constants!G$16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="4" spans="1:69">
@@ -4408,7 +4411,7 @@
       </c>
       <c r="AF4">
         <f>-Constants!G$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="5" spans="1:69">
@@ -4417,7 +4420,7 @@
       </c>
       <c r="AG5">
         <f>-Constants!H$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="6" spans="1:69">
@@ -4426,7 +4429,7 @@
       </c>
       <c r="AH6">
         <f>-Constants!I$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="7" spans="1:69">
@@ -4435,11 +4438,11 @@
       </c>
       <c r="AB7">
         <f>-Constants!C$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="AY7">
         <f>-Constants!Z16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="8" spans="1:69">
@@ -4448,11 +4451,11 @@
       </c>
       <c r="AI8">
         <f>-Constants!J$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="AZ8">
         <f>-Constants!AA16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="9" spans="1:69">
@@ -4461,11 +4464,11 @@
       </c>
       <c r="AJ9">
         <f>-Constants!K$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BA9">
         <f>-Constants!AB16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="10" spans="1:69">
@@ -4474,11 +4477,11 @@
       </c>
       <c r="AK10">
         <f>-Constants!L$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BB10">
         <f>-Constants!AC16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="11" spans="1:69">
@@ -4487,11 +4490,11 @@
       </c>
       <c r="AL11">
         <f>-Constants!M$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BC11">
         <f>-Constants!AD16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="12" spans="1:69">
@@ -4500,11 +4503,11 @@
       </c>
       <c r="AC12">
         <f>-Constants!D$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BD12">
         <f>-Constants!AE16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="13" spans="1:69">
@@ -4513,11 +4516,11 @@
       </c>
       <c r="AM13">
         <f>-Constants!N$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BE13">
         <f>-Constants!AF16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="14" spans="1:69">
@@ -4526,11 +4529,11 @@
       </c>
       <c r="AN14">
         <f>-Constants!O$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BF14">
         <f>-Constants!AG16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="15" spans="1:69">
@@ -4539,11 +4542,11 @@
       </c>
       <c r="AO15">
         <f>-Constants!P$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BG15">
         <f>-Constants!AH16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="16" spans="1:69">
@@ -4552,11 +4555,11 @@
       </c>
       <c r="AP16">
         <f>-Constants!Q$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BH16">
         <f>-Constants!AI16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="17" spans="1:69">
@@ -4565,11 +4568,11 @@
       </c>
       <c r="AD17">
         <f>-Constants!E$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BI17">
         <f>-Constants!AJ16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="18" spans="1:69">
@@ -4578,11 +4581,11 @@
       </c>
       <c r="AQ18">
         <f>-Constants!R$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BJ18">
         <f>-Constants!AK16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="19" spans="1:69">
@@ -4591,11 +4594,11 @@
       </c>
       <c r="AR19">
         <f>-Constants!S$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BK19">
         <f>-Constants!AL16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="20" spans="1:69">
@@ -4604,11 +4607,11 @@
       </c>
       <c r="AS20">
         <f>-Constants!T$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BL20">
         <f>-Constants!AM16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="21" spans="1:69">
@@ -4617,11 +4620,11 @@
       </c>
       <c r="AT21">
         <f>-Constants!U$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BM21">
         <f>-Constants!AN16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="22" spans="1:69">
@@ -4630,11 +4633,11 @@
       </c>
       <c r="AE22">
         <f>-Constants!F$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BN22">
         <f>-Constants!AO16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="23" spans="1:69">
@@ -4643,11 +4646,11 @@
       </c>
       <c r="AU23">
         <f>-Constants!V$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BO23">
         <f>-Constants!AP16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="24" spans="1:69">
@@ -4656,11 +4659,11 @@
       </c>
       <c r="AV24">
         <f>-Constants!W$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BP24">
         <f>-Constants!AQ16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="25" spans="1:69">
@@ -4669,11 +4672,11 @@
       </c>
       <c r="AW25">
         <f>-Constants!X$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
       <c r="BQ25">
         <f>-Constants!AR16</f>
-        <v>-0.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="26" spans="1:69">
@@ -4682,7 +4685,7 @@
       </c>
       <c r="AX26">
         <f>-Constants!Y$17</f>
-        <v>-2</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="27" spans="1:69">
@@ -4691,7 +4694,7 @@
       </c>
       <c r="AY27">
         <f>-Constants!Z18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="28" spans="1:69">
@@ -4700,7 +4703,7 @@
       </c>
       <c r="AZ28">
         <f>-Constants!AA18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="29" spans="1:69">
@@ -4709,7 +4712,7 @@
       </c>
       <c r="BA29">
         <f>-Constants!AB18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="30" spans="1:69">
@@ -4718,7 +4721,7 @@
       </c>
       <c r="BB30">
         <f>-Constants!AC18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="31" spans="1:69">
@@ -4727,7 +4730,7 @@
       </c>
       <c r="BC31">
         <f>-Constants!AD18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="32" spans="1:69">
@@ -4736,7 +4739,7 @@
       </c>
       <c r="BD32">
         <f>-Constants!AE18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="33" spans="1:69">
@@ -4745,7 +4748,7 @@
       </c>
       <c r="BE33">
         <f>-Constants!AF18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="34" spans="1:69">
@@ -4754,7 +4757,7 @@
       </c>
       <c r="BF34">
         <f>-Constants!AG18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="35" spans="1:69">
@@ -4763,7 +4766,7 @@
       </c>
       <c r="BG35">
         <f>-Constants!AH18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="36" spans="1:69">
@@ -4772,7 +4775,7 @@
       </c>
       <c r="BH36">
         <f>-Constants!AI18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="37" spans="1:69">
@@ -4781,7 +4784,7 @@
       </c>
       <c r="BI37">
         <f>-Constants!AJ18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="38" spans="1:69">
@@ -4790,7 +4793,7 @@
       </c>
       <c r="BJ38">
         <f>-Constants!AK18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="39" spans="1:69">
@@ -4799,7 +4802,7 @@
       </c>
       <c r="BK39">
         <f>-Constants!AL18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="40" spans="1:69">
@@ -4808,7 +4811,7 @@
       </c>
       <c r="BL40">
         <f>-Constants!AM18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="41" spans="1:69">
@@ -4817,7 +4820,7 @@
       </c>
       <c r="BM41">
         <f>-Constants!AN18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="42" spans="1:69">
@@ -4826,7 +4829,7 @@
       </c>
       <c r="BN42">
         <f>-Constants!AO18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="43" spans="1:69">
@@ -4835,7 +4838,7 @@
       </c>
       <c r="BO43">
         <f>-Constants!AP18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="44" spans="1:69">
@@ -4844,7 +4847,7 @@
       </c>
       <c r="BP44">
         <f>-Constants!AQ18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="45" spans="1:69">
@@ -4853,7 +4856,7 @@
       </c>
       <c r="BQ45">
         <f>-Constants!AR18</f>
-        <v>-1</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="46" spans="1:69">

--- a/pipe/coefficients.xlsx
+++ b/pipe/coefficients.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13960" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="2" r:id="rId1"/>
@@ -1396,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="AG1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -4999,8 +4999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5405,8 +5405,8 @@
         <v>69</v>
       </c>
       <c r="B46">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A46)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A46)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A46)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A46)-2)*Constants!$B$4*Constants!$E$4-Constants!AS18*Constants!AS15^2</f>
+        <v>-97421.600000024628</v>
       </c>
     </row>
     <row r="47" spans="1:2">
